--- a/na-service/src/test/resources/func/parser/source/real/Sources.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/Sources.xlsx
@@ -586,13 +586,13 @@
     <t>https://www.bbc.com/news/england</t>
   </si>
   <si>
-    <t>N.Ireland</t>
+    <t>North Ireland</t>
   </si>
   <si>
     <t>https://www.bbc.com/news/northern_ireland</t>
   </si>
   <si>
-    <t>N.Ireland Politics</t>
+    <t>North Ireland Politics</t>
   </si>
   <si>
     <t>https://www.bbc.com/news/northern_ireland/northern_ireland_politics</t>
@@ -712,7 +712,7 @@
     <t>Cooking,Lifestyle</t>
   </si>
   <si>
-    <t>Droider.ru</t>
+    <t>Droider</t>
   </si>
   <si>
     <t>https://www.youtube.com/c/Droiderru/videos</t>
@@ -859,12 +859,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="15.0"/>
       <color rgb="FF404040"/>
       <name val="ReithSans"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -32287,7 +32287,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="30" t="s">
         <v>190</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -32315,7 +32315,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -32427,7 +32427,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>201</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -32443,7 +32443,7 @@
       <c r="F36" s="29"/>
     </row>
     <row r="37">
-      <c r="A37" s="30"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -32455,7 +32455,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="31" t="s">
         <v>203</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -32471,7 +32471,7 @@
       <c r="F38" s="29"/>
     </row>
     <row r="39">
-      <c r="A39" s="30"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -32772,7 +32772,7 @@
       <c r="B10" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>231</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -32900,7 +32900,7 @@
       <c r="B18" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>242</v>
       </c>
       <c r="D18" s="24" t="s">

--- a/na-service/src/test/resources/func/parser/source/real/Sources.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/Sources.xlsx
@@ -4,9 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Forbes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ITC" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="BBC" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Youtube" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="BBC" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Youtube" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="228">
   <si>
     <t>page</t>
   </si>
@@ -436,69 +435,6 @@
     <t>https://www.forbes.com/lifestyle/</t>
   </si>
   <si>
-    <t>Смартфоны</t>
-  </si>
-  <si>
-    <t>https://itc.ua/tag/smartfoni/</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>ru,ukr</t>
-  </si>
-  <si>
-    <t>col-xs-8 col-txt:EQUALS</t>
-  </si>
-  <si>
-    <t>entry-title:EQUALS</t>
-  </si>
-  <si>
-    <t>touchcarousel-item:EQUALS</t>
-  </si>
-  <si>
-    <t>Ноутбуки</t>
-  </si>
-  <si>
-    <t>https://itc.ua/tag/notebook/</t>
-  </si>
-  <si>
-    <t>Планшеты</t>
-  </si>
-  <si>
-    <t>https://itc.ua/tag/planshety/</t>
-  </si>
-  <si>
-    <t>Комплектующие</t>
-  </si>
-  <si>
-    <t>https://itc.ua/tag/komplektuyushhie/</t>
-  </si>
-  <si>
-    <t>Игры</t>
-  </si>
-  <si>
-    <t>https://itc.ua/tag/igry/</t>
-  </si>
-  <si>
-    <t>Кино</t>
-  </si>
-  <si>
-    <t>https://itc.ua/review_cat/kino/</t>
-  </si>
-  <si>
-    <t>Movies</t>
-  </si>
-  <si>
-    <t>Авто</t>
-  </si>
-  <si>
-    <t>https://itc.ua/tag/avto/</t>
-  </si>
-  <si>
-    <t>Cars</t>
-  </si>
-  <si>
     <t>World</t>
   </si>
   <si>
@@ -664,6 +600,9 @@
     <t>Travel,Tech</t>
   </si>
   <si>
+    <t>ru,ukr</t>
+  </si>
+  <si>
     <t>ASIS</t>
   </si>
   <si>
@@ -764,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -841,15 +780,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF282F33"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -892,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -962,25 +892,16 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1000,10 +921,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -31661,264 +31578,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="30.86"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="5" max="5" width="28.14"/>
-    <col customWidth="1" min="6" max="6" width="25.57"/>
-    <col customWidth="1" min="7" max="7" width="18.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="E3" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17">
-      <c r="E17" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B8"/>
-    <hyperlink r:id="rId4" ref="B11"/>
-    <hyperlink r:id="rId5" ref="B14"/>
-    <hyperlink r:id="rId6" ref="B16"/>
-    <hyperlink r:id="rId7" ref="B18"/>
-  </hyperlinks>
-  <drawing r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
     <col customWidth="1" min="1" max="1" width="44.43"/>
     <col customWidth="1" min="2" max="2" width="45.29"/>
     <col customWidth="1" min="3" max="3" width="22.43"/>
@@ -31954,13 +31613,13 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>10</v>
@@ -31968,378 +31627,378 @@
     </row>
     <row r="3">
       <c r="A3" s="24"/>
-      <c r="B3" s="28"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>164</v>
+      <c r="E3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>164</v>
+      <c r="E5" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>164</v>
+      <c r="E7" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>164</v>
+      <c r="E9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>164</v>
+      <c r="E11" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>164</v>
+      <c r="E13" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>164</v>
+      <c r="E15" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>164</v>
+      <c r="E17" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>164</v>
+      <c r="E19" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>164</v>
+      <c r="E21" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>164</v>
+      <c r="E23" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>164</v>
+      <c r="E25" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="30" t="s">
-        <v>190</v>
+      <c r="A26" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>164</v>
+      <c r="E27" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="s">
-        <v>192</v>
+      <c r="A28" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>164</v>
+      <c r="E29" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30">
@@ -32347,7 +32006,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>40</v>
@@ -32355,55 +32014,55 @@
       <c r="D30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>164</v>
+      <c r="E31" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>164</v>
+      <c r="E33" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>40</v>
@@ -32411,27 +32070,27 @@
       <c r="D34" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>164</v>
+      <c r="E35" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="31" t="s">
-        <v>201</v>
+      <c r="A36" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>23</v>
@@ -32439,27 +32098,27 @@
       <c r="D36" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37">
-      <c r="A37" s="31"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>164</v>
+      <c r="E37" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="31" t="s">
-        <v>203</v>
+      <c r="A38" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>40</v>
@@ -32467,47 +32126,47 @@
       <c r="D38" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39">
-      <c r="A39" s="31"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>164</v>
+      <c r="E39" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="24" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>164</v>
+      <c r="E41" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="42">
@@ -32515,7 +32174,7 @@
         <v>63</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>63</v>
@@ -32523,43 +32182,43 @@
       <c r="D42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
-      <c r="E43" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>164</v>
+      <c r="E43" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="24" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45">
-      <c r="E45" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>164</v>
+      <c r="E45" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -32591,7 +32250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -32636,24 +32295,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
@@ -32661,31 +32320,31 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
-        <v>218</v>
+      <c r="E3" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="I4" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -32693,31 +32352,31 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
-        <v>218</v>
+      <c r="E5" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="I6" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
@@ -32725,31 +32384,31 @@
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
-        <v>218</v>
+      <c r="E7" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="I8" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -32757,31 +32416,31 @@
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>218</v>
+      <c r="E9" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>231</v>
+        <v>210</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="I10" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11">
@@ -32789,63 +32448,63 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
-        <v>218</v>
+      <c r="E11" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="I12" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="28"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>218</v>
+      <c r="E13" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="I14" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15">
@@ -32853,31 +32512,31 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
-        <v>218</v>
+      <c r="E15" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="I16" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
@@ -32885,31 +32544,31 @@
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
-        <v>218</v>
+      <c r="E17" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>242</v>
+        <v>221</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="I18" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
@@ -32917,31 +32576,31 @@
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>218</v>
+      <c r="E19" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
       <c r="I20" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -32949,31 +32608,31 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
-        <v>218</v>
+      <c r="E21" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
       <c r="I22" s="24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
@@ -32981,12 +32640,12 @@
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29" t="s">
-        <v>218</v>
+      <c r="E23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
